--- a/src/main/resources/YatraLoginCreadentials.xlsx
+++ b/src/main/resources/YatraLoginCreadentials.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t xml:space="preserve">test step</t>
   </si>
@@ -54,28 +54,22 @@
     <t xml:space="preserve">https://www.yatra.com/</t>
   </si>
   <si>
-    <t xml:space="preserve">mouseHover</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xpath=//a[text()=’My Account’]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">signInBtn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id=singInBtn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">signInbtn</t>
+    <t xml:space="preserve">mouseHover on account</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xpath,//a[text()=’My Account’]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">signIn</t>
   </si>
   <si>
     <t xml:space="preserve">enter email address</t>
   </si>
   <si>
-    <t xml:space="preserve">xpath=//button[@id='login-continue-btn']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sendkeys</t>
+    <t xml:space="preserve">xpath,//button[@id='login-continue-btn']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">email sendkeys</t>
   </si>
   <si>
     <t xml:space="preserve">diliprathod32@gmail.com</t>
@@ -84,7 +78,10 @@
     <t xml:space="preserve">enter password</t>
   </si>
   <si>
-    <t xml:space="preserve">xpath=//input[@id='login-password']</t>
+    <t xml:space="preserve">xpath,//input[@id='login-password']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">password sendkeys</t>
   </si>
   <si>
     <t xml:space="preserve">Login@123</t>
@@ -93,7 +90,7 @@
     <t xml:space="preserve">click on login button</t>
   </si>
   <si>
-    <t xml:space="preserve">xpath=//button[@class='main-btn']</t>
+    <t xml:space="preserve">xpath,//button[@class=’main-btn’]</t>
   </si>
   <si>
     <t xml:space="preserve">click</t>
@@ -224,18 +221,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.14"/>
   </cols>
   <sheetData>
@@ -289,85 +286,75 @@
         <v>11</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>12</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>5</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1" display="https://www.yatra.com/"/>
-    <hyperlink ref="D6" r:id="rId2" display="diliprathod32@gmail.com"/>
-    <hyperlink ref="D7" r:id="rId3" display="Login@123"/>
+    <hyperlink ref="D5" r:id="rId2" display="diliprathod32@gmail.com"/>
+    <hyperlink ref="D6" r:id="rId3" display="Login@123"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -387,7 +374,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C14 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -410,7 +397,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C14 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/src/main/resources/YatraLoginCreadentials.xlsx
+++ b/src/main/resources/YatraLoginCreadentials.xlsx
@@ -9,9 +9,11 @@
   </bookViews>
   <sheets>
     <sheet name="loginCredentials" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="MyLinks" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="false" name="ListMonths" vbProcedure="false">OFFSET(loginCredentials!$D$1,1,0,MAX(loginCredentials!$A:$A),1)</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -22,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
   <si>
     <t xml:space="preserve">test step</t>
   </si>
@@ -96,21 +98,89 @@
     <t xml:space="preserve">click</t>
   </si>
   <si>
-    <t xml:space="preserve">close browser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quit</t>
+    <t xml:space="preserve">Contextures Products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pivot Power Premium Add-in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time-saving tools for pivot table power users</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UserForms for Data Entry ebook Kit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step by step instructions and videos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contextures Excel Tools Add-in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Make instant backups, sort sheets, and many more tools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Entry Search Popup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Makes data entry easier when choosing from long list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Entry Popup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select single or multiple items from a listbox, to enter in a single cell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30 Excel Functions in 30 Days eBook Kit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample workbook and easy to follow user guide for key Excel functions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contextures Sites &amp; News</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contextures Excel Newsletter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weekly Excel tips, tutorials, videos, and news</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contextures Excel Tips Website</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hundreds of tutorials, tips and sample files</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contextures Excel Blog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Read the Excel tutorials and share your comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excel Pivot Tables Blog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pivot table tutorials and tips, with comments and questions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other Excel Products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contextures Recommends</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other Excel tools and training, recommended by Debra</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -134,9 +204,38 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="MS Sans Serif"/>
-      <family val="0"/>
+      <u val="single"/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="11"/>
+      <color rgb="FF0563C1"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -157,7 +256,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
+  <cellStyleXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -181,15 +280,29 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -202,17 +315,105 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="25" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="25" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="25" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="25" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="12">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Comma 2" xfId="20"/>
-    <cellStyle name="Normal 2" xfId="21"/>
+    <cellStyle name="Ctx_Hyperlink" xfId="20"/>
+    <cellStyle name="Hyperlink 2" xfId="21"/>
+    <cellStyle name="Hyperlink 3" xfId="22"/>
+    <cellStyle name="Normal 2 2" xfId="23"/>
+    <cellStyle name="Normal 2 3 2" xfId="24"/>
+    <cellStyle name="Normal 4" xfId="25"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0563C1"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -221,57 +422,57 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D1048576"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="8:8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -279,77 +480,61 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1" display="https://www.yatra.com/"/>
@@ -371,43 +556,150 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="B1:C17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="8:8 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="8.8515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="41.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="64"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="3" width="8.85"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="6.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B9" s="7"/>
+    </row>
+    <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B15" s="7"/>
+    </row>
+    <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" display="Pivot Power Premium Add-in"/>
+    <hyperlink ref="B4" r:id="rId2" display="UserForms for Data Entry ebook Kit"/>
+    <hyperlink ref="B5" r:id="rId3" display="Contextures Excel Tools Add-in"/>
+    <hyperlink ref="B6" r:id="rId4" display="Data Entry Search Popup"/>
+    <hyperlink ref="B7" r:id="rId5" display="Data Entry Popup"/>
+    <hyperlink ref="B8" r:id="rId6" display="30 Excel Functions in 30 Days eBook Kit"/>
+    <hyperlink ref="B11" r:id="rId7" display="Contextures Excel Newsletter"/>
+    <hyperlink ref="B12" r:id="rId8" display="Contextures Excel Tips Website"/>
+    <hyperlink ref="B13" r:id="rId9" display="Contextures Excel Blog"/>
+    <hyperlink ref="B14" r:id="rId10" display="Excel Pivot Tables Blog"/>
+    <hyperlink ref="B17" r:id="rId11" display="Contextures Recommends"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.5"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
+    <oddFooter>&amp;Lwww.contextures.com&amp;R&amp;D</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/src/main/resources/YatraLoginCreadentials.xlsx
+++ b/src/main/resources/YatraLoginCreadentials.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
   <si>
     <t xml:space="preserve">test step</t>
   </si>
@@ -56,7 +56,7 @@
     <t xml:space="preserve">https://www.yatra.com/</t>
   </si>
   <si>
-    <t xml:space="preserve">mouseHover on account</t>
+    <t xml:space="preserve">mouse  Hover on account</t>
   </si>
   <si>
     <t xml:space="preserve">xpath,//a[text()=’My Account’]</t>
@@ -96,6 +96,15 @@
   </si>
   <si>
     <t xml:space="preserve">click</t>
+  </si>
+  <si>
+    <t xml:space="preserve">click on logout button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xpath,//a[@id='logOut']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">click on logout</t>
   </si>
   <si>
     <t xml:space="preserve">Contextures Products</t>
@@ -422,17 +431,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="8:8"/>
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.71"/>
   </cols>
@@ -532,6 +541,20 @@
         <v>23</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="0" t="s">
         <v>5</v>
       </c>
     </row>
@@ -559,7 +582,7 @@
   <dimension ref="B1:C17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="8:8 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -573,55 +596,55 @@
     <row r="1" customFormat="false" ht="6.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -629,39 +652,39 @@
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -669,15 +692,15 @@
     </row>
     <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="8" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/YatraLoginCreadentials.xlsx
+++ b/src/main/resources/YatraLoginCreadentials.xlsx
@@ -74,7 +74,7 @@
     <t xml:space="preserve">email sendkeys</t>
   </si>
   <si>
-    <t xml:space="preserve">diliprathod32@gmail.com</t>
+    <t xml:space="preserve">diliprathod@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">enter password</t>
@@ -86,7 +86,7 @@
     <t xml:space="preserve">password sendkeys</t>
   </si>
   <si>
-    <t xml:space="preserve">Login@123</t>
+    <t xml:space="preserve">abc@123</t>
   </si>
   <si>
     <t xml:space="preserve">click on login button</t>
@@ -434,7 +434,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -561,8 +561,8 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1" display="https://www.yatra.com/"/>
-    <hyperlink ref="D5" r:id="rId2" display="diliprathod32@gmail.com"/>
-    <hyperlink ref="D6" r:id="rId3" display="Login@123"/>
+    <hyperlink ref="D5" r:id="rId2" display="diliprathod@gmail.com"/>
+    <hyperlink ref="D6" r:id="rId3" display="abc@123"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
